--- a/src/test/resource/testdata/userapi.xlsx
+++ b/src/test/resource/testdata/userapi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="143">
   <si>
     <t>userFirstName</t>
   </si>
@@ -459,6 +459,30 @@
   </si>
   <si>
     <t>teamzzz@gmail.com</t>
+  </si>
+  <si>
+    <t>No auth</t>
+  </si>
+  <si>
+    <t>incorrect content type</t>
+  </si>
+  <si>
+    <t>unauthorized</t>
+  </si>
+  <si>
+    <t>TOBEDELETEDFIRSTNAME</t>
+  </si>
+  <si>
+    <t>Gulongfirstnamelongfirstnamelongfirstnamelongfirstnamelongfirstnamelongfirstnamelongfirstname</t>
+  </si>
+  <si>
+    <t>GULastname</t>
+  </si>
+  <si>
+    <t>deletelongname@gmail.com</t>
+  </si>
+  <si>
+    <t>post1,delete1</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85:J95"/>
+    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3226,7 +3250,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="72">
+    <row r="49" spans="1:16" ht="72">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3253,7 +3277,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="403.2">
+    <row r="50" spans="1:16" ht="46.2" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>78</v>
       </c>
@@ -3285,7 +3309,7 @@
         <v>49</v>
       </c>
       <c r="K50" s="2">
-        <v>200</v>
+        <v>401</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2">
@@ -3297,34 +3321,37 @@
       <c r="O50" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" ht="36" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C51" s="2">
-        <v>8889997776</v>
+        <v>8889997774</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I51" s="2">
-        <v>54321</v>
+        <v>12345</v>
       </c>
       <c r="J51" s="5">
         <v>50</v>
@@ -3332,61 +3359,60 @@
       <c r="K51" s="2">
         <v>200</v>
       </c>
-      <c r="L51" s="2"/>
       <c r="M51" s="2">
-        <v>25148</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>24577</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="O51" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2">
-        <v>8889997777</v>
+        <v>8889997776</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I52" s="2">
-        <v>78965</v>
+        <v>54321</v>
       </c>
       <c r="J52" s="5">
         <v>51</v>
       </c>
       <c r="K52" s="2">
-        <v>404</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="L52" s="2"/>
       <c r="M52" s="2">
-        <v>35148</v>
+        <v>25148</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:16">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
@@ -3394,10 +3420,10 @@
         <v>89</v>
       </c>
       <c r="C53" s="2">
-        <v>8889997774</v>
+        <v>8889997777</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>91</v>
@@ -3418,18 +3444,20 @@
         <v>52</v>
       </c>
       <c r="K53" s="2">
-        <v>400</v>
-      </c>
-      <c r="L53" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="M53" s="2">
-        <v>25148</v>
+        <v>35148</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
         <v>88</v>
       </c>
@@ -3437,16 +3465,26 @@
         <v>89</v>
       </c>
       <c r="C54" s="2">
-        <v>8889997777</v>
+        <v>8889997774</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="2">
+        <v>78965</v>
+      </c>
       <c r="J54" s="5">
         <v>53</v>
       </c>
@@ -3462,8 +3500,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="2"/>
+    <row r="55" spans="1:16">
+      <c r="A55" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>89</v>
       </c>
@@ -3473,21 +3513,11 @@
       <c r="D55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I55" s="2">
-        <v>78965</v>
-      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
       <c r="J55" s="5">
         <v>54</v>
       </c>
@@ -3503,10 +3533,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="2" t="s">
-        <v>88</v>
-      </c>
+    <row r="56" spans="1:16">
+      <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>89</v>
       </c>
@@ -3529,7 +3557,7 @@
         <v>59</v>
       </c>
       <c r="I56" s="2">
-        <v>0</v>
+        <v>78965</v>
       </c>
       <c r="J56" s="5">
         <v>55</v>
@@ -3546,11 +3574,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C57" s="2">
         <v>8889997777</v>
       </c>
@@ -3570,7 +3600,7 @@
         <v>59</v>
       </c>
       <c r="I57" s="2">
-        <v>78965</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5">
         <v>56</v>
@@ -3587,14 +3617,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2">
+        <v>8889997777</v>
+      </c>
       <c r="D58" s="2" t="s">
         <v>90</v>
       </c>
@@ -3628,17 +3658,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="2">
-        <v>8889997777</v>
-      </c>
-      <c r="D59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>91</v>
       </c>
@@ -3669,19 +3699,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2">
         <v>8889997777</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
         <v>91</v>
       </c>
@@ -3712,12 +3740,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C61" s="2">
         <v>8889997777</v>
@@ -3726,7 +3754,7 @@
         <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>92</v>
@@ -3755,7 +3783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
         <v>88</v>
       </c>
@@ -3769,13 +3797,13 @@
         <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G62" s="2">
-        <v>1234</v>
+      <c r="G62" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>59</v>
@@ -3798,9 +3826,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>89</v>
@@ -3817,8 +3845,8 @@
       <c r="F63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>93</v>
+      <c r="G63" s="2">
+        <v>1234</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>59</v>
@@ -3841,12 +3869,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2">
         <v>8889997777</v>
@@ -3884,15 +3912,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C65" s="2">
+        <v>8889997777</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
@@ -3927,18 +3955,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:16">
       <c r="A66" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="2">
-        <v>8889997777</v>
+      <c r="C66" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>91</v>
@@ -3970,7 +3998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:16">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -3981,10 +4009,10 @@
         <v>8889997777</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1111</v>
+        <v>101</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>92</v>
@@ -4013,7 +4041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:16">
       <c r="A68" s="2" t="s">
         <v>88</v>
       </c>
@@ -4026,11 +4054,11 @@
       <c r="D68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>91</v>
+      <c r="E68" s="2">
+        <v>1111</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>93</v>
@@ -4056,7 +4084,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:16">
       <c r="A69" s="2" t="s">
         <v>88</v>
       </c>
@@ -4073,7 +4101,7 @@
         <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>93</v>
@@ -4081,8 +4109,8 @@
       <c r="H69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>103</v>
+      <c r="I69" s="2">
+        <v>78965</v>
       </c>
       <c r="J69" s="5">
         <v>68</v>
@@ -4099,7 +4127,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
         <v>88</v>
       </c>
@@ -4121,11 +4149,11 @@
       <c r="G70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H70" s="2">
-        <v>1234</v>
-      </c>
-      <c r="I70" s="2">
-        <v>78965</v>
+      <c r="H70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J70" s="5">
         <v>69</v>
@@ -4142,39 +4170,39 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:16">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2">
-        <v>8889997775</v>
+        <v>8889997777</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1234</v>
       </c>
       <c r="I71" s="2">
-        <v>12345</v>
+        <v>78965</v>
       </c>
       <c r="J71" s="5">
         <v>70</v>
       </c>
       <c r="K71" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2">
@@ -4185,53 +4213,94 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+    <row r="72" spans="1:16" s="2" customFormat="1">
+      <c r="A72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="2">
+        <v>8889997775</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I72" s="2">
+        <v>12345</v>
+      </c>
       <c r="J72" s="5">
         <v>71</v>
       </c>
       <c r="K72" s="2">
-        <v>200</v>
-      </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M72" s="2">
+        <v>25148</v>
+      </c>
       <c r="O72" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="2">
+        <v>8889997775</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="2">
+        <v>12345</v>
+      </c>
       <c r="J73" s="5">
         <v>72</v>
       </c>
       <c r="K73" s="2">
-        <v>401</v>
+        <v>200</v>
       </c>
       <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
+      <c r="M73" s="2">
+        <v>25148</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4245,7 +4314,7 @@
         <v>73</v>
       </c>
       <c r="K74" s="2">
-        <v>404</v>
+        <v>200</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -4254,10 +4323,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="75" spans="1:16">
+      <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -4270,19 +4337,20 @@
         <v>74</v>
       </c>
       <c r="K75" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -4301,37 +4369,23 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="2">
-        <v>111</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="2" customFormat="1">
+      <c r="A77" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="J77" s="5">
         <v>76</v>
       </c>
       <c r="K77" s="2">
-        <v>404</v>
-      </c>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4354,9 +4408,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:16">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4379,8 +4433,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="2"/>
+    <row r="80" spans="1:16">
+      <c r="A80" s="2">
+        <v>111</v>
+      </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4393,7 +4449,7 @@
         <v>79</v>
       </c>
       <c r="K80" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -4404,7 +4460,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4429,7 +4485,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4453,9 +4509,7 @@
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="2">
-        <v>0</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4468,7 +4522,7 @@
         <v>82</v>
       </c>
       <c r="K83" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -4477,34 +4531,47 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="2">
-        <v>-78</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+    <row r="84" spans="1:15" s="2" customFormat="1">
+      <c r="A84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4567898521</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I84" s="2">
+        <v>12345</v>
+      </c>
       <c r="J84" s="5">
         <v>83</v>
       </c>
       <c r="K84" s="2">
-        <v>404</v>
-      </c>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>201</v>
+      </c>
       <c r="O84" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4528,8 +4595,8 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="2" t="s">
-        <v>112</v>
+      <c r="A86" s="2">
+        <v>0</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4553,7 +4620,9 @@
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2">
+        <v>-78</v>
+      </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4569,16 +4638,16 @@
         <v>404</v>
       </c>
       <c r="L87" s="2"/>
-      <c r="M87" s="2">
-        <v>26177</v>
-      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4591,19 +4660,19 @@
         <v>87</v>
       </c>
       <c r="K88" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L88" s="2"/>
-      <c r="M88" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4616,15 +4685,13 @@
         <v>88</v>
       </c>
       <c r="K89" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L89" s="2"/>
-      <c r="M89" s="2">
-        <v>26.77</v>
-      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4644,7 +4711,9 @@
         <v>404</v>
       </c>
       <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="M90" s="2">
+        <v>26177</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2" t="s">
         <v>123</v>
@@ -4664,11 +4733,11 @@
         <v>90</v>
       </c>
       <c r="K91" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L91" s="2"/>
-      <c r="M91" s="2">
-        <v>0</v>
+      <c r="M91" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2" t="s">
@@ -4689,11 +4758,11 @@
         <v>91</v>
       </c>
       <c r="K92" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2">
-        <v>-5689</v>
+        <v>26.77</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2" t="s">
@@ -4717,9 +4786,7 @@
         <v>404</v>
       </c>
       <c r="L93" s="2"/>
-      <c r="M93" s="2">
-        <v>478954</v>
-      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2" t="s">
         <v>123</v>
@@ -4739,11 +4806,11 @@
         <v>93</v>
       </c>
       <c r="K94" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L94" s="2"/>
-      <c r="M94" s="2" t="s">
-        <v>111</v>
+      <c r="M94" s="2">
+        <v>0</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2" t="s">
@@ -4764,14 +4831,89 @@
         <v>94</v>
       </c>
       <c r="K95" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2">
-        <v>25881</v>
+        <v>-5689</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="5">
+        <v>95</v>
+      </c>
+      <c r="K96" s="2">
+        <v>404</v>
+      </c>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2">
+        <v>478954</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="5">
+        <v>96</v>
+      </c>
+      <c r="K97" s="2">
+        <v>400</v>
+      </c>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="5">
+        <v>97</v>
+      </c>
+      <c r="K98" s="2">
+        <v>400</v>
+      </c>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2">
+        <v>25881</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
         <v>123</v>
       </c>
     </row>
